--- a/output/google_maps_data_SMA_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_SMA_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SMA+Kota+Yogyakarta/@-7.8053374,110.3684985,15z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(0274) 375146</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.807542</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.807542</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.370686</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Santa+Maria+Yogyakarta/@-7.807542,110.3526616,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a579b39964b65:0xb1b8473c13abdedf!8m2!3d-7.807542!4d110.370686!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hd__fn3h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Santa+Maria+Yogyakarta/@-7.807542,110.3526616,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a579b39964b65:0xb1b8473c13abdedf!8m2!3d-7.807542!4d110.370686!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hd__fn3h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -579,25 +572,24 @@
           <t>(0274) 377740</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.813797</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.813797</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.358629</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+7+Yogyakarta/@-7.8137975,110.3406049,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5794390209d7:0x6ce98bf02968b155!8m2!3d-7.8137975!4d110.3586293!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120l32q1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+7+Yogyakarta/@-7.8137975,110.3406049,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5794390209d7:0x6ce98bf02968b155!8m2!3d-7.8137975!4d110.3586293!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120l32q1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -624,25 +616,24 @@
           <t>(0274) 562458</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.797812</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.797812</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.362783</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+10+Yogyakarta/@-7.7978118,110.3447583,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57889ec1f61b:0x3d6c08e64810adce!8m2!3d-7.7978118!4d110.3627827!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11gzg1b1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+10+Yogyakarta/@-7.7978118,110.3447583,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57889ec1f61b:0x3d6c08e64810adce!8m2!3d-7.7978118!4d110.3627827!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11gzg1b1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -669,25 +660,24 @@
           <t>(0274) 565898</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.777117</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.777117</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.367941</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+11+Yogyakarta/@-7.777117,110.3499166,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5837e8e7e9a3:0xb1ec7bd26428c2f2!8m2!3d-7.777117!4d110.367941!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11b77_t2fd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+11+Yogyakarta/@-7.777117,110.3499166,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5837e8e7e9a3:0xb1ec7bd26428c2f2!8m2!3d-7.777117!4d110.367941!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11b77_t2fd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -714,25 +704,24 @@
           <t>(0274) 563647</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.778026</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.778026</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.353004</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Yogyakarta/@-7.778026,110.3349796,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a58156b722617:0x6f3815e952da6a52!8m2!3d-7.778026!4d110.353004!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121fx1xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Yogyakarta/@-7.778026,110.3349796,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a58156b722617:0x6f3815e952da6a52!8m2!3d-7.778026!4d110.353004!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121fx1xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -759,25 +748,24 @@
           <t>(0274) 513454</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>-7.79974</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.79974</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.352539</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Teladan+Yogyakarta/@-7.7997396,110.3345141,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57f4fa62fdab:0x4d7d92f9032750f0!8m2!3d-7.7997396!4d110.3525385!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1tf2p0y9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Teladan+Yogyakarta/@-7.7997396,110.3345141,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57f4fa62fdab:0x4d7d92f9032750f0!8m2!3d-7.7997396!4d110.3525385!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1tf2p0y9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -804,25 +792,24 @@
           <t>(0274) 513335</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>-7.78139</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.78139</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.373136</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+6+Yogyakarta/@-7.78139,110.3551112,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5833e6a843d9:0xdd1bba4944c75a25!8m2!3d-7.78139!4d110.3731356!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1211pf_4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+6+Yogyakarta/@-7.78139,110.3551112,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5833e6a843d9:0xdd1bba4944c75a25!8m2!3d-7.78139!4d110.3731356!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1211pf_4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -849,25 +836,24 @@
           <t>(0274) 513245</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.772021</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.772021</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.362579</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+NEGERI+4+Yogyakarta/@-7.7720215,110.3445545,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5846eb229fa5:0x6ac5d3e1ccb99b1d!8m2!3d-7.7720215!4d110.3625789!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121bwb96?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+NEGERI+4+Yogyakarta/@-7.7720215,110.3445545,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5846eb229fa5:0x6ac5d3e1ccb99b1d!8m2!3d-7.7720215!4d110.3625789!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121bwb96?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -894,25 +880,24 @@
           <t>(0274) 513493</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>-7.80045</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.80045</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.395385</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+8+Yogyakarta/@-7.80045,110.3773606,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57669d43fe55:0x75fae1bb400d4da5!8m2!3d-7.80045!4d110.395385!15sChNTTUEgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11_ygjs9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+8+Yogyakarta/@-7.80045,110.3773606,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57669d43fe55:0x75fae1bb400d4da5!8m2!3d-7.80045!4d110.395385!15sChNTTUEgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11_ygjs9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -939,25 +924,24 @@
           <t>(0274) 370310</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.9</v>
+        <v>-7.802219</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.802219</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.366639</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+St.+Yusup+Yogyakarta/@-7.802219,110.3486146,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57880dd11379:0x3e3ea1f1734aa6b3!8m2!3d-7.802219!4d110.366639!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121g71h4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+St.+Yusup+Yogyakarta/@-7.802219,110.3486146,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57880dd11379:0x3e3ea1f1734aa6b3!8m2!3d-7.802219!4d110.366639!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121g71h4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -984,25 +968,24 @@
           <t>(0274) 512856</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.786528</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.786528</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.373616</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+3+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a582ded4e8f5d:0xe43a323a5f432dc5!8m2!3d-7.7865276!4d110.3736159!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121thsgw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+3+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a582ded4e8f5d:0xe43a323a5f432dc5!8m2!3d-7.7865276!4d110.3736159!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121thsgw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1029,25 +1012,24 @@
           <t>0821-8008-7076</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>-7.793904</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.793904</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.382486</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+PIRI+1+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a59df912ba049:0xbdae2c4947f02d2!8m2!3d-7.793904!4d110.382486!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11szsv46l5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+PIRI+1+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a59df912ba049:0xbdae2c4947f02d2!8m2!3d-7.793904!4d110.382486!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11szsv46l5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1070,25 +1052,24 @@
           <t>(0274) 373454</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.815591</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.815591</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.354471</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+SULTAN+AGUNG+YOGYAKARTA+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%B1%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A6%84%EA%A6%92%EA%A6%B8%EA%A6%81%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.815591,110.3364463,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57bee949c919:0xa7cc1ff216ee394d!8m2!3d-7.815591!4d110.3544707!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm202t20?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+SULTAN+AGUNG+YOGYAKARTA+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%B1%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A6%84%EA%A6%92%EA%A6%B8%EA%A6%81%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.815591,110.3364463,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57bee949c919:0xa7cc1ff216ee394d!8m2!3d-7.815591!4d110.3544707!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm202t20?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1115,25 +1096,24 @@
           <t>(0274) 374562</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>-7.805457</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.805457</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.380415</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Taman+Madya+IP+Tamansiswa/@-7.8054574,110.3623901,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a577826e1f807:0x40dc172d1ffcdc59!8m2!3d-7.8054574!4d110.3804145!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm6g9l39?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Taman+Madya+IP+Tamansiswa/@-7.8054574,110.3623901,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a577826e1f807:0x40dc172d1ffcdc59!8m2!3d-7.8054574!4d110.3804145!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm6g9l39?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1156,25 +1136,24 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.780825</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.780825</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.363977</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Taman+Madya+Jetis+Yogyakarta/@-7.780825,110.3459526,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a583a2a729d15:0xef450072f030dd0b!8m2!3d-7.780825!4d110.363977!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm44gxmh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Taman+Madya+Jetis+Yogyakarta/@-7.780825,110.3459526,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a583a2a729d15:0xef450072f030dd0b!8m2!3d-7.780825!4d110.363977!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm44gxmh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1197,25 +1176,24 @@
           <t>(0274) 513434</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.781601</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.781601</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.376394</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+9+Yogyakarta/@-7.7816006,110.3583698,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5834a7e9b759:0x852a67e186e0d759!8m2!3d-7.7816006!4d110.3763942!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F12bfg2xv9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+9+Yogyakarta/@-7.7816006,110.3583698,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5834a7e9b759:0x852a67e186e0d759!8m2!3d-7.7816006!4d110.3763942!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F12bfg2xv9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1238,25 +1216,24 @@
           <t>(0274) 374970</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>-7.810798</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.810798</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.355701</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+6+Yogyakarta/@-7.8107978,110.3376764,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57933eff4bed:0xa7592d7830245160!8m2!3d-7.8107978!4d110.3557008!15sChNTTUEgS290YSBZb2d5YWthcnRhkgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11btmrdjmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+6+Yogyakarta/@-7.8107978,110.3376764,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57933eff4bed:0xa7592d7830245160!8m2!3d-7.8107978!4d110.3557008!15sChNTTUEgS290YSBZb2d5YWthcnRhkgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11btmrdjmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
